--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-organization-prefectureno.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-organization-prefectureno.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-16</t>
+    <t>2022-07-31</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-organization-prefectureno.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-organization-prefectureno.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0a</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-organization-prefectureno.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-organization-prefectureno.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="154">
   <si>
     <t>Property</t>
   </si>
@@ -332,7 +332,7 @@
     <t>Extension.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Identifier
+    <t xml:space="preserve">Coding
 </t>
   </si>
   <si>
@@ -340,12 +340,28 @@
   </si>
   <si>
     <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
+    <t>valueCoding</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_PrefectureNumber_VS</t>
+  </si>
+  <si>
     <t>Extension.value[x].id</t>
   </si>
   <si>
@@ -365,161 +381,114 @@
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
-    <t>Extension.value[x].use</t>
+    <t>Extension.value[x].system</t>
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>都道府県番号の名前空間を識別するURIを指定</t>
+  </si>
+  <si>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+  </si>
+  <si>
+    <t>urn:oid:1.2.392.100495.20.3.21</t>
+  </si>
+  <si>
+    <t>Coding.system</t>
+  </si>
+  <si>
+    <t>./codeSystem</t>
+  </si>
+  <si>
+    <t>Extension.value[x].version</t>
+  </si>
+  <si>
+    <t>Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+  </si>
+  <si>
+    <t>Coding.version</t>
+  </si>
+  <si>
+    <t>./codeSystemVersion</t>
+  </si>
+  <si>
+    <t>Extension.value[x].code</t>
   </si>
   <si>
     <t xml:space="preserve">code
 </t>
   </si>
   <si>
-    <t>usual | official | temp | secondary | old (If known)</t>
-  </si>
-  <si>
-    <t>The purpose of this identifier.</t>
-  </si>
-  <si>
-    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
-  </si>
-  <si>
-    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>Identifies the purpose for this identifier, if known .</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
-  </si>
-  <si>
-    <t>Identifier.use</t>
-  </si>
-  <si>
-    <t>Role.code or implied by context</t>
-  </si>
-  <si>
-    <t>Extension.value[x].type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
+    <t>Symbol in syntax defined by the system</t>
+  </si>
+  <si>
+    <t>都道府県番号コード。 例）北海道　 "01"</t>
+  </si>
+  <si>
+    <t>Need to refer to a particular code in the system.</t>
+  </si>
+  <si>
+    <t>Coding.code</t>
+  </si>
+  <si>
+    <t>./code</t>
+  </si>
+  <si>
+    <t>Extension.value[x].display</t>
+  </si>
+  <si>
+    <t>Representation defined by the system</t>
+  </si>
+  <si>
+    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+  </si>
+  <si>
+    <t>Coding.display</t>
+  </si>
+  <si>
+    <t>CV.displayName</t>
+  </si>
+  <si>
+    <t>Extension.value[x].userSelected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
 </t>
   </si>
   <si>
-    <t>Description of identifier</t>
-  </si>
-  <si>
-    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
-  </si>
-  <si>
-    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
-  </si>
-  <si>
-    <t>Identifier.type</t>
-  </si>
-  <si>
-    <t>Extension.value[x].system</t>
-  </si>
-  <si>
-    <t>The namespace for the identifier value</t>
-  </si>
-  <si>
-    <t>都道府県番号の名前空間を識別するURIを指定</t>
-  </si>
-  <si>
-    <t>Identifier.system is always case sensitive.</t>
-  </si>
-  <si>
-    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
-  </si>
-  <si>
-    <t>urn:oid:1.2.392.100495.20.3.21</t>
-  </si>
-  <si>
-    <t>http://www.acme.com/identifiers/patient</t>
-  </si>
-  <si>
-    <t>Identifier.system</t>
-  </si>
-  <si>
-    <t>II.root or Role.id.root</t>
-  </si>
-  <si>
-    <t>Extension.value[x].value</t>
-  </si>
-  <si>
-    <t>The value that is unique</t>
-  </si>
-  <si>
-    <t>2桁にゼロパディングされた都道府県番号。 例）北海道　 "01"</t>
-  </si>
-  <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
-  </si>
-  <si>
-    <t>123456</t>
-  </si>
-  <si>
-    <t>Identifier.value</t>
-  </si>
-  <si>
-    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
-  </si>
-  <si>
-    <t>Extension.value[x].period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
-    <t>Time period when id is/was valid for use</t>
-  </si>
-  <si>
-    <t>Time period during which identifier is/was valid for use.</t>
-  </si>
-  <si>
-    <t>Identifier.period</t>
-  </si>
-  <si>
-    <t>Role.effectiveTime or implied by context</t>
-  </si>
-  <si>
-    <t>Extension.value[x].assigner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization)
-</t>
-  </si>
-  <si>
-    <t>Organization that issued id (may be just text)</t>
-  </si>
-  <si>
-    <t>Organization that issued/manages the identifier.</t>
-  </si>
-  <si>
-    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
-  </si>
-  <si>
-    <t>Identifier.assigner</t>
-  </si>
-  <si>
-    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
+    <t>If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+  </si>
+  <si>
+    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+  </si>
+  <si>
+    <t>Coding.userSelected</t>
+  </si>
+  <si>
+    <t>CD.codingRationale</t>
   </si>
 </sst>
 </file>
@@ -843,7 +812,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="27.703125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="30.6796875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
@@ -853,7 +822,7 @@
     <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="46.04296875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="44.26171875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -866,19 +835,19 @@
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="43.6484375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="21.57421875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="58.4375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="18.1875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="31" max="31" width="19.97265625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="102.6171875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="24.98046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1465,16 +1434,14 @@
         <v>75</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="AB6" s="2"/>
       <c r="AC6" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="AE6" t="s" s="2">
         <v>102</v>
@@ -1489,7 +1456,7 @@
         <v>75</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>101</v>
@@ -1497,9 +1464,11 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="B7" s="2"/>
+        <v>102</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>109</v>
+      </c>
       <c r="C7" t="s" s="2">
         <v>75</v>
       </c>
@@ -1508,7 +1477,7 @@
         <v>76</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>75</v>
@@ -1520,13 +1489,13 @@
         <v>75</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1553,13 +1522,11 @@
         <v>75</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X7" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="X7" s="2"/>
       <c r="Y7" t="s" s="2">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="Z7" t="s" s="2">
         <v>75</v>
@@ -1577,7 +1544,7 @@
         <v>75</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>76</v>
@@ -1589,26 +1556,26 @@
         <v>75</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>88</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>75</v>
@@ -1620,17 +1587,15 @@
         <v>75</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>112</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
         <v>75</v>
@@ -1667,31 +1632,31 @@
         <v>75</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="AC8" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AJ8" t="s" s="2">
         <v>88</v>
@@ -1703,39 +1668,37 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>75</v>
+        <v>114</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>75</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>114</v>
+        <v>75</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>114</v>
+        <v>75</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="M9" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>119</v>
-      </c>
+      <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
         <v>75</v>
       </c>
@@ -1759,51 +1722,51 @@
         <v>75</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>121</v>
+        <v>75</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>122</v>
+        <v>75</v>
       </c>
       <c r="Z9" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="AC9" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>123</v>
+        <v>95</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>124</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -1814,7 +1777,7 @@
         <v>76</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>75</v>
@@ -1823,29 +1786,29 @@
         <v>75</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="O10" t="s" s="2">
         <v>75</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" t="s" s="2">
-        <v>75</v>
+        <v>124</v>
       </c>
       <c r="R10" t="s" s="2">
         <v>75</v>
@@ -1863,13 +1826,13 @@
         <v>75</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>131</v>
+        <v>75</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>132</v>
+        <v>75</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>133</v>
+        <v>75</v>
       </c>
       <c r="Z10" t="s" s="2">
         <v>75</v>
@@ -1887,7 +1850,7 @@
         <v>75</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>76</v>
@@ -1899,15 +1862,15 @@
         <v>75</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -1927,35 +1890,33 @@
         <v>75</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
         <v>75</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" t="s" s="2">
-        <v>140</v>
+        <v>75</v>
       </c>
       <c r="R11" t="s" s="2">
         <v>75</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>141</v>
+        <v>75</v>
       </c>
       <c r="T11" t="s" s="2">
         <v>75</v>
@@ -1991,7 +1952,7 @@
         <v>75</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>76</v>
@@ -2003,15 +1964,15 @@
         <v>75</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>143</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2031,21 +1992,21 @@
         <v>75</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>84</v>
+        <v>134</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="N12" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="M12" s="2"/>
+      <c r="N12" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="O12" t="s" s="2">
         <v>75</v>
       </c>
@@ -2057,7 +2018,7 @@
         <v>75</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>148</v>
+        <v>75</v>
       </c>
       <c r="T12" t="s" s="2">
         <v>75</v>
@@ -2093,7 +2054,7 @@
         <v>75</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>76</v>
@@ -2105,15 +2066,15 @@
         <v>75</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>150</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2124,7 +2085,7 @@
         <v>76</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>75</v>
@@ -2133,19 +2094,21 @@
         <v>75</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>152</v>
+        <v>84</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
+      <c r="N13" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="O13" t="s" s="2">
         <v>75</v>
       </c>
@@ -2193,7 +2156,7 @@
         <v>75</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>76</v>
@@ -2205,15 +2168,15 @@
         <v>75</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>156</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2224,7 +2187,7 @@
         <v>76</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>75</v>
@@ -2233,21 +2196,23 @@
         <v>75</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="N14" s="2"/>
+        <v>150</v>
+      </c>
+      <c r="N14" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="O14" t="s" s="2">
         <v>75</v>
       </c>
@@ -2295,7 +2260,7 @@
         <v>75</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>76</v>
@@ -2307,10 +2272,10 @@
         <v>75</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>163</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-organization-prefectureno.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-organization-prefectureno.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="153">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-31</t>
+    <t>2022-09-26</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -250,7 +250,7 @@
     <t>*</t>
   </si>
   <si>
-    <t>都道府県番号2桁</t>
+    <t>都道府県番号2桁【詳細参照】</t>
   </si>
   <si>
     <t>都道府県番号２桁。Identifier型の拡張を使用する。
@@ -356,10 +356,10 @@
     <t>valueCoding</t>
   </si>
   <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_PrefectureNumber_VS</t>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_PrefectureNumber_VS</t>
   </si>
   <si>
     <t>Extension.value[x].id</t>
@@ -397,9 +397,6 @@
   </si>
   <si>
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
-  </si>
-  <si>
-    <t>urn:oid:1.2.392.100495.20.3.21</t>
   </si>
   <si>
     <t>Coding.system</t>
@@ -836,7 +833,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="21.57421875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="58.4375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="54.19140625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -1808,49 +1805,49 @@
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE10" t="s" s="2">
         <v>124</v>
-      </c>
-      <c r="R10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE10" t="s" s="2">
-        <v>125</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>76</v>
@@ -1865,12 +1862,12 @@
         <v>108</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -1896,13 +1893,13 @@
         <v>84</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
@@ -1952,7 +1949,7 @@
         <v>75</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>76</v>
@@ -1967,12 +1964,12 @@
         <v>108</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -1995,17 +1992,17 @@
         <v>119</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="K12" t="s" s="2">
+      <c r="L12" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O12" t="s" s="2">
         <v>75</v>
@@ -2054,7 +2051,7 @@
         <v>75</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>76</v>
@@ -2069,12 +2066,12 @@
         <v>108</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2100,14 +2097,14 @@
         <v>84</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>142</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O13" t="s" s="2">
         <v>75</v>
@@ -2156,7 +2153,7 @@
         <v>75</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>76</v>
@@ -2171,12 +2168,12 @@
         <v>108</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2199,19 +2196,19 @@
         <v>119</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="L14" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>75</v>
@@ -2260,7 +2257,7 @@
         <v>75</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>76</v>
@@ -2275,7 +2272,7 @@
         <v>108</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-organization-prefectureno.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-organization-prefectureno.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="154">
   <si>
     <t>Property</t>
   </si>
@@ -91,6 +91,9 @@
     <t>Copyright</t>
   </si>
   <si>
+    <t>Copyright FHIR Japanese implementation research working group in Japan Association of Medical Informatics (JAMI) 一般社団法人日本医療情報学会NeXEHRS課題研究会FHIR日本実装検討WG</t>
+  </si>
+  <si>
     <t>FHIR Version</t>
   </si>
   <si>
@@ -261,53 +264,53 @@
 </t>
   </si>
   <si>
+    <t>Extension.id</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Extension.extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Extension.id</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Extension.extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>Extension.url</t>
@@ -734,63 +737,63 @@
         <v>24</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -849,214 +852,214 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L2" t="s" s="2">
         <v>22</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3">
@@ -1065,23 +1068,23 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F3" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J3" t="s" s="2">
         <v>84</v>
@@ -1095,65 +1098,65 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE3" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ3" t="s" s="2">
         <v>88</v>
@@ -1165,29 +1168,29 @@
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J4" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L4" t="s" s="2">
         <v>91</v>
@@ -1195,38 +1198,38 @@
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA4" t="s" s="2">
         <v>92</v>
@@ -1235,7 +1238,7 @@
         <v>93</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD4" t="s" s="2">
         <v>94</v>
@@ -1244,28 +1247,28 @@
         <v>95</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
@@ -1275,75 +1278,75 @@
         <v>83</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
         <v>3</v>
       </c>
       <c r="R5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>83</v>
@@ -1352,236 +1355,236 @@
         <v>83</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F6" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AB6" s="2"/>
       <c r="AC6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F7" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="X7" s="2"/>
       <c r="Y7" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F8" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J8" t="s" s="2">
         <v>84</v>
@@ -1595,65 +1598,65 @@
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE8" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ8" t="s" s="2">
         <v>88</v>
@@ -1661,74 +1664,74 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J9" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA9" t="s" s="2">
         <v>92</v>
@@ -1737,7 +1740,7 @@
         <v>93</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD9" t="s" s="2">
         <v>94</v>
@@ -1746,16 +1749,16 @@
         <v>95</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>88</v>
@@ -1763,516 +1766,516 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F10" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F11" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J11" t="s" s="2">
         <v>84</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F12" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F13" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J13" t="s" s="2">
         <v>84</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-organization-prefectureno.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-organization-prefectureno.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-26</t>
+    <t>2022-10-24</t>
   </si>
   <si>
     <t>Publisher</t>
